--- a/src/main/resources/xlsx/pcs/pr-2-1_2.xlsx
+++ b/src/main/resources/xlsx/pcs/pr-2-1_2.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24F422B7-7FFA-48F0-A171-48B9B8664562}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="2445" yWindow="1905" windowWidth="22905" windowHeight="11850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="党员推荐票" sheetId="1" r:id="rId1"/>
@@ -81,11 +82,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>中国共产党北京师范大学第十三次党员代表大会
-代表候选人推荐票</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>所在党支部名称：</t>
     </r>
@@ -135,11 +131,16 @@
     <t>说明：对党代表候选人初步人选赞成的，在“推荐意见”栏划“○”，不赞成的划“×”，弃权的什么也不划。如另选他人，将其姓名填入“另选他人姓名”栏内。</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <t>title
+代表候选人推荐票</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -294,14 +295,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -582,11 +583,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="A3" sqref="A3:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -601,7 +602,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="66" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -610,7 +611,7 @@
     </row>
     <row r="2" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -618,38 +619,38 @@
       <c r="E2" s="10"/>
     </row>
     <row r="3" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
+      <c r="A3" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
     </row>
     <row r="4" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
+      <c r="A4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
     </row>
     <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>6</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -662,22 +663,22 @@
       <c r="E6" s="7"/>
     </row>
     <row r="7" spans="1:5" s="3" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
+      <c r="A7" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
     </row>
     <row r="8" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="6">
